--- a/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_1.0.0_reqs.xlsx
+++ b/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_1.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/Inferno/Shared Documents/Testing and Development/Bulk Data Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/bulk-data-test-kit/lib/bulk_data_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{054CD4AF-1FBA-4DE3-8D03-38E2E17D34D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC19B37A-203B-4366-ABCA-B50CE8569DEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD4A27-AA83-AF46-8810-084091F46D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AE$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AE$318</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="529">
   <si>
     <r>
       <rPr>
@@ -1459,9 +1459,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>This seems more like a requirement that the server can handle the alternative notation.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -1562,9 +1559,6 @@
   </si>
   <si>
     <t>`_outputFormat`: Optionality for Client: optional</t>
-  </si>
-  <si>
-    <t>MAY param requirement</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/stu1/export.html#query-parameters, https://hl7.org/fhir/uv/bulkdata/stu1/OperationDefinition-export.html#bulkdataexport, https://hl7.org/fhir/uv/bulkdata/stu1/OperationDefinition-group-export.html#grouplevelexport, https://hl7.org/fhir/uv/bulkdata/stu1/OperationDefinition-patient-export.html#patientlevelexport</t>
@@ -1847,9 +1841,6 @@
     <t>`_typeFilter`: FHIR search response parameters such as _include and _sort SHALL NOT be used.</t>
   </si>
   <si>
-    <t>Depends on MAY params requirements</t>
-  </si>
-  <si>
     <t>`_typeFilter`:A server unable to support the requested _typeFilter queries SHOULD return an error and FHIR OperationOutcome resource</t>
   </si>
   <si>
@@ -1902,9 +1893,6 @@
   </si>
   <si>
     <t xml:space="preserve">A client MAY repeat the `_typeFilter` parameter multiple times in a kick-off request. </t>
-  </si>
-  <si>
-    <t>Same as 31 (but specific to `_typeFilter`)?</t>
   </si>
   <si>
     <t>When [the `_typeFilter` parameter is] repeated, the server SHALL treat the repeated values as if they were comma delimited values within a single `_typeFilter` parameter.</t>
@@ -1976,9 +1964,6 @@
   </si>
   <si>
     <t xml:space="preserve"> when polling for status.</t>
-  </si>
-  <si>
-    <t>See Question</t>
   </si>
   <si>
     <t>1. "Wait" test listens for requests
@@ -2548,9 +2533,6 @@
   </si>
   <si>
     <t>A FHIR Bulk Data Client has the option of choosing from this list to access necessary data based on use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>Not specifically testable?</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/stu1/artifacts.html#behavior-operation-definitions</t>
@@ -3135,7 +3117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,6 +3754,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3790,7 +3773,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4179,15 +4161,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="133.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="19"/>
-    <col min="3" max="3" width="91.125" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="14"/>
+    <col min="2" max="2" width="10.83203125" style="19"/>
+    <col min="3" max="3" width="91.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="339.95" customHeight="1">
+    <row r="1" spans="1:3" ht="340" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4195,57 +4177,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="124.5" customHeight="1">
+    <row r="2" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="1:3" ht="134.1" customHeight="1">
+    <row r="3" spans="1:3" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:3" ht="408.95" customHeight="1">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
     </row>
-    <row r="5" spans="1:3" ht="258" customHeight="1">
-      <c r="A5" s="74"/>
+    <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75"/>
       <c r="B5" s="38"/>
       <c r="C5" s="33"/>
     </row>
-    <row r="6" spans="1:3" ht="153">
+    <row r="6" spans="1:3" ht="164" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="98.1" customHeight="1">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
-    </row>
-    <row r="8" spans="1:3" ht="126" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77"/>
-    </row>
-    <row r="9" spans="1:3" ht="68.099999999999994" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="B7" s="77"/>
+    </row>
+    <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="78"/>
+    </row>
+    <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="74"/>
       <c r="B9" s="37"/>
     </row>
-    <row r="10" spans="1:3" ht="273">
+    <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
     </row>
   </sheetData>
@@ -4263,40 +4245,40 @@
   <dimension ref="A1:AE318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U315" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C319" sqref="C319"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32:L271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="48.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="48.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="41" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="15" customWidth="1"/>
     <col min="9" max="9" width="10" style="29" customWidth="1"/>
     <col min="10" max="10" width="22" style="29" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="29" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="29" customWidth="1"/>
     <col min="13" max="13" width="20" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="10" customWidth="1"/>
-    <col min="16" max="18" width="10.875" style="10"/>
+    <col min="15" max="15" width="10.83203125" style="10" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="10"/>
     <col min="19" max="19" width="10.5" style="15" customWidth="1"/>
     <col min="20" max="20" width="42.5" style="10" customWidth="1"/>
-    <col min="21" max="21" width="44.125" style="10" customWidth="1"/>
-    <col min="22" max="22" width="44.125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="31.25" style="12" customWidth="1"/>
+    <col min="21" max="21" width="44.1640625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="44.1640625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="31.1640625" style="12" customWidth="1"/>
     <col min="24" max="24" width="27.5" style="12" customWidth="1"/>
-    <col min="25" max="16384" width="10.875" style="6"/>
+    <col min="25" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="45">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4368,7 +4350,7 @@
       </c>
       <c r="X1" s="65"/>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="78.75">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4421,7 +4403,7 @@
       <c r="X2" s="65"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4474,7 +4456,7 @@
       <c r="X3" s="65"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="31.5">
+    <row r="4" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4520,7 +4502,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="78.75">
+    <row r="5" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4566,7 +4548,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="110.25">
+    <row r="6" spans="1:31" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4612,7 +4594,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="63">
+    <row r="7" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4655,7 +4637,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="94.5">
+    <row r="8" spans="1:31" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4698,7 +4680,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:31" ht="63">
+    <row r="9" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4734,7 +4716,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="47.25">
+    <row r="10" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4773,7 +4755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="63">
+    <row r="11" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4812,7 +4794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="63">
+    <row r="12" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4848,7 +4830,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="31.5">
+    <row r="13" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4887,7 +4869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="31.5">
+    <row r="14" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4926,7 +4908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="31.5">
+    <row r="15" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -4965,7 +4947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="31.5">
+    <row r="16" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -5004,7 +4986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="31.5">
+    <row r="17" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -5043,7 +5025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="93.75" customHeight="1">
+    <row r="18" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -5094,7 +5076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="31.5">
+    <row r="19" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -5133,7 +5115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="47.25">
+    <row r="20" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -5175,7 +5157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -5214,7 +5196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -5253,7 +5235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="31.5">
+    <row r="23" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -5292,7 +5274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="31.5">
+    <row r="24" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -5332,7 +5314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="31.5">
+    <row r="25" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5371,7 +5353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="31.5">
+    <row r="26" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5410,7 +5392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="31.5">
+    <row r="27" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -5452,7 +5434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="47.25">
+    <row r="28" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -5488,7 +5470,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="63">
+    <row r="29" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -5527,7 +5509,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -5566,7 +5548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="47.25">
+    <row r="31" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -5608,7 +5590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="63.75" customHeight="1">
+    <row r="32" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -5629,12 +5611,6 @@
       </c>
       <c r="I32" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(B32)</f>
@@ -5653,17 +5629,17 @@
         <v>Client</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T32" s="15"/>
       <c r="V32" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W32" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="47.25">
+    <row r="33" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -5671,7 +5647,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>33</v>
@@ -5702,7 +5678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="63">
+    <row r="34" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -5710,7 +5686,7 @@
         <v>84</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>44</v>
@@ -5722,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
         <f t="array" ref="M34">PAGE_NAME(B34)</f>
@@ -5741,7 +5717,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="63">
+    <row r="35" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -5749,7 +5725,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>44</v>
@@ -5761,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
         <f t="array" ref="M35">PAGE_NAME(B35)</f>
@@ -5780,7 +5756,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="47.25">
+    <row r="36" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -5788,7 +5764,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>33</v>
@@ -5800,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(B36)</f>
@@ -5822,7 +5798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="47.25">
+    <row r="37" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -5830,7 +5806,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>33</v>
@@ -5842,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(B37)</f>
@@ -5864,7 +5840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="78.75">
+    <row r="38" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -5872,7 +5848,7 @@
         <v>84</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>41</v>
@@ -5884,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(B38)</f>
@@ -5903,7 +5879,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="94.5">
+    <row r="39" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -5911,7 +5887,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>41</v>
@@ -5923,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(B39)</f>
@@ -5942,7 +5918,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="78.75">
+    <row r="40" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -5950,7 +5926,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>33</v>
@@ -5959,7 +5935,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
@@ -5984,10 +5960,10 @@
         <v>35</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="47.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -5995,7 +5971,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>33</v>
@@ -6026,7 +6002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="78.75">
+    <row r="42" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -6034,7 +6010,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>33</v>
@@ -6065,15 +6041,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="47.25">
+    <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>44</v>
@@ -6085,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
         <f t="array" ref="M43">PAGE_NAME(B43)</f>
@@ -6104,15 +6080,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="90" customHeight="1">
+    <row r="44" spans="1:24" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>33</v>
@@ -6146,24 +6122,24 @@
         <v>Client</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W44" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="47.25">
+    <row r="45" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>33</v>
@@ -6194,15 +6170,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="93.75" customHeight="1">
+    <row r="46" spans="1:24" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>33</v>
@@ -6236,24 +6212,24 @@
         <v>Client</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T46" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W46" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="47.25">
+    <row r="47" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>33</v>
@@ -6281,21 +6257,21 @@
         <v>Server</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W47" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="47.25">
+    <row r="48" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>41</v>
@@ -6323,21 +6299,21 @@
         <v>Server</v>
       </c>
       <c r="U48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W48" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="W48" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>41</v>
@@ -6350,12 +6326,6 @@
       </c>
       <c r="I49" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
         <f t="array" ref="M49">PAGE_NAME(B49)</f>
@@ -6374,18 +6344,18 @@
         <v>Client</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="31.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>38</v>
@@ -6413,15 +6383,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="31.5">
+    <row r="51" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>41</v>
@@ -6449,15 +6419,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="31.5">
+    <row r="52" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>38</v>
@@ -6485,15 +6455,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="47.25">
+    <row r="53" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>38</v>
@@ -6521,15 +6491,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="47.25">
+    <row r="54" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>41</v>
@@ -6557,18 +6527,18 @@
         <v>Server</v>
       </c>
       <c r="W54" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="31.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>41</v>
@@ -6581,12 +6551,6 @@
       </c>
       <c r="I55" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L55" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(B55)</f>
@@ -6605,18 +6569,18 @@
         <v>Client</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="110.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>33</v>
@@ -6628,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(B56)</f>
@@ -6650,15 +6614,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="126">
+    <row r="57" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>33</v>
@@ -6670,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
         <f t="array" ref="M57">PAGE_NAME(B57)</f>
@@ -6692,15 +6656,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="78.75">
+    <row r="58" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>33</v>
@@ -6712,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
         <f t="array" ref="M58">PAGE_NAME(B58)</f>
@@ -6734,15 +6698,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="78.75">
+    <row r="59" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>33</v>
@@ -6754,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
         <f t="array" ref="M59">PAGE_NAME(B59)</f>
@@ -6776,15 +6740,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="78.75">
+    <row r="60" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>38</v>
@@ -6812,15 +6776,15 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>41</v>
@@ -6848,15 +6812,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="31.5">
+    <row r="62" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>41</v>
@@ -6869,12 +6833,6 @@
       </c>
       <c r="I62" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K62" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
         <f t="array" ref="M62">PAGE_NAME(B62)</f>
@@ -6893,18 +6851,18 @@
         <v>Client</v>
       </c>
       <c r="S62" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="47.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>38</v>
@@ -6916,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
         <f t="array" ref="M63">PAGE_NAME(B63)</f>
@@ -6935,18 +6893,18 @@
         <v/>
       </c>
       <c r="W63" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="47.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>38</v>
@@ -6958,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
         <f t="array" ref="M64">PAGE_NAME(B64)</f>
@@ -6977,15 +6935,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="63">
+    <row r="65" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>33</v>
@@ -6997,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
         <f t="array" ref="M65">PAGE_NAME(B65)</f>
@@ -7019,15 +6977,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="78.75">
+    <row r="66" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>44</v>
@@ -7039,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
         <f t="array" ref="M66">PAGE_NAME(B66)</f>
@@ -7058,15 +7016,15 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="94.5">
+    <row r="67" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>44</v>
@@ -7078,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -7097,15 +7055,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="110.25">
+    <row r="68" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>41</v>
@@ -7117,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -7136,15 +7094,15 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="220.5">
+    <row r="69" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>33</v>
@@ -7156,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -7178,15 +7136,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="47.25">
+    <row r="70" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>44</v>
@@ -7198,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -7217,15 +7175,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="78.75">
+    <row r="71" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>33</v>
@@ -7237,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
         <f t="array" ref="M71">PAGE_NAME(B71)</f>
@@ -7259,15 +7217,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="78.75">
+    <row r="72" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>33</v>
@@ -7279,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
         <f t="array" ref="M72">PAGE_NAME(B72)</f>
@@ -7301,15 +7259,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="78.75">
+    <row r="73" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>33</v>
@@ -7321,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
         <f t="array" ref="M73">PAGE_NAME(B73)</f>
@@ -7343,15 +7301,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="63">
+    <row r="74" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>33</v>
@@ -7376,18 +7334,18 @@
         <v>Server</v>
       </c>
       <c r="W74" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>33</v>
@@ -7397,12 +7355,6 @@
       </c>
       <c r="I75" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L75" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
         <f t="array" ref="M75">PAGE_NAME(B75)</f>
@@ -7421,21 +7373,21 @@
         <v>Client</v>
       </c>
       <c r="S75" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W75" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>33</v>
@@ -7447,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
         <f t="array" ref="M76">PAGE_NAME(B76)</f>
@@ -7466,18 +7418,18 @@
         <v>Server</v>
       </c>
       <c r="W76" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>33</v>
@@ -7489,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
         <f t="array" ref="M77">PAGE_NAME(B77)</f>
@@ -7508,18 +7460,18 @@
         <v/>
       </c>
       <c r="W77" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>33</v>
@@ -7531,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -7550,18 +7502,18 @@
         <v/>
       </c>
       <c r="W78" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="94.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>33</v>
@@ -7573,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
         <f t="array" ref="M79">PAGE_NAME(B79)</f>
@@ -7592,18 +7544,18 @@
         <v/>
       </c>
       <c r="W79" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>33</v>
@@ -7615,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
         <f t="array" ref="M80">PAGE_NAME(B80)</f>
@@ -7634,18 +7586,18 @@
         <v>Server</v>
       </c>
       <c r="W80" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>33</v>
@@ -7657,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
         <f t="array" ref="M81">PAGE_NAME(B81)</f>
@@ -7676,18 +7628,18 @@
         <v>Server</v>
       </c>
       <c r="W81" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>33</v>
@@ -7699,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
         <f t="array" ref="M82">PAGE_NAME(B82)</f>
@@ -7718,18 +7670,18 @@
         <v>Server</v>
       </c>
       <c r="W82" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>33</v>
@@ -7741,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
         <f t="array" ref="M83">PAGE_NAME(B83)</f>
@@ -7760,18 +7712,18 @@
         <v>Server</v>
       </c>
       <c r="W83" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>33</v>
@@ -7799,18 +7751,18 @@
         <v>Server</v>
       </c>
       <c r="W84" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>33</v>
@@ -7823,12 +7775,6 @@
       </c>
       <c r="I85" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K85" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L85" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
         <f t="array" ref="M85">PAGE_NAME(B85)</f>
@@ -7847,21 +7793,21 @@
         <v>Client</v>
       </c>
       <c r="S85" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W85" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>33</v>
@@ -7873,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
         <f t="array" ref="M86">PAGE_NAME(B86)</f>
@@ -7892,18 +7838,18 @@
         <v>Server</v>
       </c>
       <c r="W86" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>33</v>
@@ -7915,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
         <f t="array" ref="M87">PAGE_NAME(B87)</f>
@@ -7934,18 +7880,18 @@
         <v>Server</v>
       </c>
       <c r="W87" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="94.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>33</v>
@@ -7957,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
@@ -7976,18 +7922,18 @@
         <v>Server</v>
       </c>
       <c r="W88" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>33</v>
@@ -7999,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -8018,18 +7964,18 @@
         <v>Server</v>
       </c>
       <c r="W89" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>33</v>
@@ -8041,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -8060,18 +8006,18 @@
         <v>Server</v>
       </c>
       <c r="W90" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>33</v>
@@ -8099,18 +8045,18 @@
         <v>Server</v>
       </c>
       <c r="W91" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>33</v>
@@ -8123,12 +8069,6 @@
       </c>
       <c r="I92" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K92" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L92" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(B92)</f>
@@ -8147,21 +8087,21 @@
         <v>Client</v>
       </c>
       <c r="S92" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W92" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>33</v>
@@ -8173,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(B93)</f>
@@ -8192,18 +8132,18 @@
         <v>Server</v>
       </c>
       <c r="W93" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>33</v>
@@ -8215,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(B94)</f>
@@ -8234,18 +8174,18 @@
         <v>Server</v>
       </c>
       <c r="W94" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>33</v>
@@ -8257,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
@@ -8276,18 +8216,18 @@
         <v>Server</v>
       </c>
       <c r="W95" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="94.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>33</v>
@@ -8296,19 +8236,13 @@
         <v>64</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G96" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K96" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -8327,21 +8261,21 @@
         <v>Client</v>
       </c>
       <c r="S96" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W96" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>33</v>
@@ -8350,13 +8284,13 @@
         <v>34</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G97" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
@@ -8375,18 +8309,18 @@
         <v>Server</v>
       </c>
       <c r="W97" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>33</v>
@@ -8398,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -8417,18 +8351,18 @@
         <v/>
       </c>
       <c r="W98" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>33</v>
@@ -8440,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
         <f t="array" ref="M99">PAGE_NAME(B99)</f>
@@ -8459,18 +8393,18 @@
         <v/>
       </c>
       <c r="W99" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>33</v>
@@ -8482,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
         <f t="array" ref="M100">PAGE_NAME(B100)</f>
@@ -8501,18 +8435,18 @@
         <v/>
       </c>
       <c r="W100" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>33</v>
@@ -8524,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
         <f t="array" ref="M101">PAGE_NAME(B101)</f>
@@ -8543,18 +8477,18 @@
         <v>Server</v>
       </c>
       <c r="W101" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>33</v>
@@ -8582,18 +8516,18 @@
         <v>Server</v>
       </c>
       <c r="W102" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>33</v>
@@ -8606,12 +8540,6 @@
       </c>
       <c r="I103" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K103" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L103" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -8630,21 +8558,21 @@
         <v>Client</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W103" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="78.75">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>33</v>
@@ -8656,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -8675,18 +8603,18 @@
         <v>Server</v>
       </c>
       <c r="W104" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>33</v>
@@ -8698,16 +8626,10 @@
         <v>1</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I105" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K105" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L105" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -8726,21 +8648,21 @@
         <v/>
       </c>
       <c r="S105" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W105" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>33</v>
@@ -8752,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -8771,18 +8693,18 @@
         <v>Server</v>
       </c>
       <c r="W106" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>33</v>
@@ -8794,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -8813,18 +8735,18 @@
         <v>Server</v>
       </c>
       <c r="W107" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="94.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>41</v>
@@ -8852,18 +8774,18 @@
         <v/>
       </c>
       <c r="W108" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="78.75">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>33</v>
@@ -8875,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
@@ -8897,15 +8819,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="94.5">
+    <row r="110" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>33</v>
@@ -8918,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
@@ -8940,15 +8862,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="94.5">
+    <row r="111" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>33</v>
@@ -8960,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
         <f t="array" ref="M111">PAGE_NAME(B111)</f>
@@ -8982,15 +8904,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="110.25">
+    <row r="112" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>33</v>
@@ -9002,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -9024,15 +8946,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="110.25">
+    <row r="113" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>33</v>
@@ -9044,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -9066,15 +8988,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="47.25">
+    <row r="114" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>41</v>
@@ -9087,12 +9009,6 @@
       </c>
       <c r="I114" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K114" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L114" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
         <f t="array" ref="M114">PAGE_NAME(B114)</f>
@@ -9111,18 +9027,18 @@
         <v>Client</v>
       </c>
       <c r="S114" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="31.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>33</v>
@@ -9135,12 +9051,6 @@
       </c>
       <c r="I115" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K115" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L115" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -9159,21 +9069,21 @@
         <v/>
       </c>
       <c r="S115" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W115" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="47.25">
+    <row r="116" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>44</v>
@@ -9201,15 +9111,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="31.5">
+    <row r="117" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>33</v>
@@ -9222,12 +9132,6 @@
       </c>
       <c r="I117" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K117" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L117" s="29" t="s">
-        <v>233</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -9246,21 +9150,21 @@
         <v>Client</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W117" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="63">
+    <row r="118" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>33</v>
@@ -9291,15 +9195,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="78.75">
+    <row r="119" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>44</v>
@@ -9311,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -9330,15 +9234,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="140.25" customHeight="1">
+    <row r="120" spans="1:23" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="69" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>41</v>
@@ -9347,13 +9251,13 @@
         <v>64</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I120" s="29" t="s">
         <v>67</v>
@@ -9381,21 +9285,21 @@
         <v>68</v>
       </c>
       <c r="T120" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="W120" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="63">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>33</v>
@@ -9407,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -9429,15 +9333,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="47.25">
+    <row r="122" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>33</v>
@@ -9449,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M122" s="9" t="str" cm="1">
         <f t="array" ref="M122">PAGE_NAME(B122)</f>
@@ -9471,15 +9375,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="78.75">
+    <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>33</v>
@@ -9491,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(B123)</f>
@@ -9513,15 +9417,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="150.75" customHeight="1">
+    <row r="124" spans="1:23" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" s="69" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>41</v>
@@ -9530,13 +9434,13 @@
         <v>64</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I124" s="29" t="s">
         <v>67</v>
@@ -9564,18 +9468,18 @@
         <v>68</v>
       </c>
       <c r="T124" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="225" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>44</v>
@@ -9587,16 +9491,10 @@
         <v>1</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I125" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K125" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L125" s="29" t="s">
-        <v>255</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -9615,21 +9513,21 @@
         <v>Client</v>
       </c>
       <c r="S125" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T125" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="63">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>44</v>
@@ -9641,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
         <f t="array" ref="M126">PAGE_NAME(B126)</f>
@@ -9660,15 +9558,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="242.25" customHeight="1">
+    <row r="127" spans="1:23" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>44</v>
@@ -9680,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I127" s="29" t="s">
         <v>67</v>
@@ -9705,21 +9603,21 @@
         <v>Client</v>
       </c>
       <c r="S127" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T127" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="31.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>44</v>
@@ -9731,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(B128)</f>
@@ -9750,15 +9648,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="78.75">
+    <row r="129" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>44</v>
@@ -9770,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
         <f t="array" ref="M129">PAGE_NAME(B129)</f>
@@ -9789,15 +9687,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="47.25">
+    <row r="130" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>41</v>
@@ -9809,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
         <f t="array" ref="M130">PAGE_NAME(B130)</f>
@@ -9828,15 +9726,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="202.5" customHeight="1">
+    <row r="131" spans="1:24" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>44</v>
@@ -9848,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I131" s="29" t="s">
         <v>67</v>
@@ -9873,21 +9771,21 @@
         <v>Client</v>
       </c>
       <c r="S131" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T131" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" ht="63">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>44</v>
@@ -9899,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
         <f t="array" ref="M132">PAGE_NAME(B132)</f>
@@ -9918,15 +9816,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="47.25">
+    <row r="133" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>38</v>
@@ -9954,15 +9852,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="47.25">
+    <row r="134" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>41</v>
@@ -9990,15 +9888,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="47.25">
+    <row r="135" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>41</v>
@@ -10026,15 +9924,15 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="47.25">
+    <row r="136" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="69" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>41</v>
@@ -10062,15 +9960,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="47.25">
+    <row r="137" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>38</v>
@@ -10103,15 +10001,15 @@
       </c>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:24" ht="78.75">
+    <row r="138" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>38</v>
@@ -10123,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
         <f t="array" ref="M138">PAGE_NAME(B138)</f>
@@ -10142,18 +10040,18 @@
         <v>Server</v>
       </c>
       <c r="W138" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" ht="78.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>38</v>
@@ -10181,21 +10079,21 @@
         <v>Server</v>
       </c>
       <c r="W139" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="X139" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24" ht="110.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>33</v>
@@ -10207,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -10229,15 +10127,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="110.25">
+    <row r="141" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>33</v>
@@ -10249,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M141" s="9" t="str" cm="1">
         <f t="array" ref="M141">PAGE_NAME(B141)</f>
@@ -10271,15 +10169,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="47.25">
+    <row r="142" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>41</v>
@@ -10291,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M142" s="9" t="str" cm="1">
         <f t="array" ref="M142">PAGE_NAME(B142)</f>
@@ -10310,15 +10208,15 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="110.25">
+    <row r="143" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>38</v>
@@ -10330,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M143" s="9" t="str" cm="1">
         <f t="array" ref="M143">PAGE_NAME(B143)</f>
@@ -10349,15 +10247,15 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="31.5">
+    <row r="144" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>38</v>
@@ -10369,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M144" s="9" t="str" cm="1">
         <f t="array" ref="M144">PAGE_NAME(B144)</f>
@@ -10388,15 +10286,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="47.25">
+    <row r="145" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>38</v>
@@ -10424,15 +10322,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="63">
+    <row r="146" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>38</v>
@@ -10460,15 +10358,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="78.75">
+    <row r="147" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>41</v>
@@ -10496,18 +10394,18 @@
         <v>Server</v>
       </c>
       <c r="W147" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="78.75">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>38</v>
@@ -10535,15 +10433,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="63">
+    <row r="149" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>38</v>
@@ -10571,15 +10469,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="78.75">
+    <row r="150" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="63" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>41</v>
@@ -10607,15 +10505,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="47.25">
+    <row r="151" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>38</v>
@@ -10643,15 +10541,15 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="47.25">
+    <row r="152" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>38</v>
@@ -10679,15 +10577,15 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="63">
+    <row r="153" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>38</v>
@@ -10715,15 +10613,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="63">
+    <row r="154" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>44</v>
@@ -10751,15 +10649,15 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="78.75">
+    <row r="155" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>38</v>
@@ -10787,15 +10685,15 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="78.75">
+    <row r="156" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>38</v>
@@ -10823,15 +10721,15 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="78.75">
+    <row r="157" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>38</v>
@@ -10859,15 +10757,15 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="63">
+    <row r="158" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>38</v>
@@ -10895,15 +10793,15 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="63">
+    <row r="159" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>33</v>
@@ -10915,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -10937,15 +10835,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="78.75">
+    <row r="160" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>38</v>
@@ -10973,15 +10871,15 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="78.75">
+    <row r="161" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>38</v>
@@ -11009,15 +10907,15 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="94.5">
+    <row r="162" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>38</v>
@@ -11045,15 +10943,15 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="78.75">
+    <row r="163" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>38</v>
@@ -11065,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M163" s="9" t="str" cm="1">
         <f t="array" ref="M163">PAGE_NAME(B163)</f>
@@ -11084,15 +10982,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="78.75">
+    <row r="164" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>41</v>
@@ -11120,15 +11018,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="78.75">
+    <row r="165" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>38</v>
@@ -11156,15 +11054,15 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="78.75">
+    <row r="166" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>38</v>
@@ -11192,18 +11090,18 @@
         <v/>
       </c>
       <c r="W166" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" ht="126">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>38</v>
@@ -11231,15 +11129,15 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="110.25">
+    <row r="168" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>44</v>
@@ -11251,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -11270,15 +11168,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="145.15" customHeight="1">
+    <row r="169" spans="1:23" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>38</v>
@@ -11287,7 +11185,7 @@
         <v>34</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>0</v>
@@ -11309,15 +11207,15 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="94.5">
+    <row r="170" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>38</v>
@@ -11345,15 +11243,15 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="94.5">
+    <row r="171" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>38</v>
@@ -11381,15 +11279,15 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="94.5">
+    <row r="172" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>41</v>
@@ -11417,15 +11315,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="94.5">
+    <row r="173" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>41</v>
@@ -11453,15 +11351,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="110.25">
+    <row r="174" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>44</v>
@@ -11473,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -11492,15 +11390,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="110.25">
+    <row r="175" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>41</v>
@@ -11528,15 +11426,15 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="78.75">
+    <row r="176" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>38</v>
@@ -11564,15 +11462,15 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="110.25">
+    <row r="177" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>44</v>
@@ -11600,15 +11498,15 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="110.25">
+    <row r="178" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>41</v>
@@ -11617,7 +11515,7 @@
         <v>34</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>0</v>
@@ -11639,15 +11537,15 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="94.5">
+    <row r="179" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>38</v>
@@ -11675,15 +11573,15 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="78.75">
+    <row r="180" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>33</v>
@@ -11714,15 +11612,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="78.75">
+    <row r="181" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>33</v>
@@ -11753,15 +11651,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="78.75">
+    <row r="182" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>33</v>
@@ -11770,7 +11668,7 @@
         <v>34</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>0</v>
@@ -11795,15 +11693,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="141.75">
+    <row r="183" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>33</v>
@@ -11815,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -11837,15 +11735,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="78.75">
+    <row r="184" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>33</v>
@@ -11857,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -11879,15 +11777,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="78.75">
+    <row r="185" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>33</v>
@@ -11899,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M185" s="9" t="str" cm="1">
         <f t="array" ref="M185">PAGE_NAME(B185)</f>
@@ -11921,15 +11819,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="78.75">
+    <row r="186" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>33</v>
@@ -11941,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M186" s="9" t="str" cm="1">
         <f t="array" ref="M186">PAGE_NAME(B186)</f>
@@ -11963,15 +11861,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="78.75">
+    <row r="187" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>33</v>
@@ -12002,15 +11900,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="63">
+    <row r="188" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>33</v>
@@ -12041,15 +11939,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="63">
+    <row r="189" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>33</v>
@@ -12080,15 +11978,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="63">
+    <row r="190" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>33</v>
@@ -12119,15 +12017,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="63">
+    <row r="191" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>38</v>
@@ -12158,15 +12056,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="78.75">
+    <row r="192" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>38</v>
@@ -12194,15 +12092,15 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="78.75">
+    <row r="193" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>38</v>
@@ -12230,15 +12128,15 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="63">
+    <row r="194" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>38</v>
@@ -12247,7 +12145,7 @@
         <v>34</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -12269,15 +12167,15 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="78.75">
+    <row r="195" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>44</v>
@@ -12305,15 +12203,15 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="63">
+    <row r="196" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>44</v>
@@ -12325,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M196" s="9" t="str" cm="1">
         <f t="array" ref="M196">PAGE_NAME(B196)</f>
@@ -12344,15 +12242,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="110.25">
+    <row r="197" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>38</v>
@@ -12380,15 +12278,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="126">
+    <row r="198" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>44</v>
@@ -12400,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M198" s="9" t="str" cm="1">
         <f t="array" ref="M198">PAGE_NAME(B198)</f>
@@ -12419,15 +12317,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="78.75">
+    <row r="199" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>38</v>
@@ -12455,15 +12353,15 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="78.75">
+    <row r="200" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>38</v>
@@ -12491,15 +12389,15 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="78.75">
+    <row r="201" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>200</v>
       </c>
       <c r="B201" s="69" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>41</v>
@@ -12511,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I201" s="29" t="s">
         <v>67</v>
@@ -12539,18 +12437,18 @@
         <v>68</v>
       </c>
       <c r="T201" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" ht="243.75" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" ht="243.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>201</v>
       </c>
       <c r="B202" s="69" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>38</v>
@@ -12562,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I202" s="29" t="s">
         <v>67</v>
@@ -12587,21 +12485,21 @@
         <v/>
       </c>
       <c r="S202" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T202" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" ht="63">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="69" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>38</v>
@@ -12629,15 +12527,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="47.25">
+    <row r="204" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>203</v>
       </c>
       <c r="B204" s="69" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>41</v>
@@ -12665,15 +12563,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="47.25">
+    <row r="205" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>38</v>
@@ -12701,15 +12599,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="47.25">
+    <row r="206" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="69" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>41</v>
@@ -12737,15 +12635,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="47.25">
+    <row r="207" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>38</v>
@@ -12773,15 +12671,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="63">
+    <row r="208" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>38</v>
@@ -12809,15 +12707,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="63">
+    <row r="209" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>38</v>
@@ -12845,15 +12743,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="94.5">
+    <row r="210" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>38</v>
@@ -12881,15 +12779,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="47.25">
+    <row r="211" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C211" s="60" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>38</v>
@@ -12917,15 +12815,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="63">
+    <row r="212" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>33</v>
@@ -12937,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M212" s="9" t="str" cm="1">
         <f t="array" ref="M212">PAGE_NAME(B212)</f>
@@ -12959,15 +12857,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="63">
+    <row r="213" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>33</v>
@@ -12979,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="H213" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M213" s="9" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
@@ -13001,15 +12899,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="47.25">
+    <row r="214" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>33</v>
@@ -13021,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M214" s="9" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
@@ -13043,15 +12941,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="94.5">
+    <row r="215" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="69" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>33</v>
@@ -13063,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M215" s="9" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
@@ -13085,15 +12983,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="94.5">
+    <row r="216" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>33</v>
@@ -13105,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M216" s="9" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
@@ -13127,15 +13025,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="78.75">
+    <row r="217" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>33</v>
@@ -13147,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M217" s="9" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
@@ -13169,15 +13067,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="78.75">
+    <row r="218" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>33</v>
@@ -13208,15 +13106,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="157.5">
+    <row r="219" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>44</v>
@@ -13225,7 +13123,7 @@
         <v>34</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G219" s="7" t="b">
         <v>0</v>
@@ -13247,24 +13145,24 @@
         <v/>
       </c>
       <c r="W219" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" ht="63">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G220" s="7" t="b">
         <v>0</v>
@@ -13286,15 +13184,15 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="78.75">
+    <row r="221" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>44</v>
@@ -13303,7 +13201,7 @@
         <v>34</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G221" s="7" t="b">
         <v>0</v>
@@ -13325,15 +13223,15 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="63">
+    <row r="222" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>41</v>
@@ -13343,15 +13241,6 @@
       </c>
       <c r="G222" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="I222" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="K222" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L222" s="29" t="s">
-        <v>412</v>
       </c>
       <c r="M222" s="9" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
@@ -13370,24 +13259,24 @@
         <v>Client</v>
       </c>
       <c r="S222" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" ht="63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G223" s="7" t="b">
         <v>0</v>
@@ -13409,15 +13298,15 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="141.75">
+    <row r="224" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>38</v>
@@ -13426,13 +13315,13 @@
         <v>34</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G224" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M224" s="9" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
@@ -13451,15 +13340,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="157.5">
+    <row r="225" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>38</v>
@@ -13468,13 +13357,13 @@
         <v>34</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G225" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M225" s="9" t="str" cm="1">
         <f t="array" ref="M225">PAGE_NAME(B225)</f>
@@ -13493,15 +13382,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="157.5">
+    <row r="226" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>38</v>
@@ -13510,13 +13399,13 @@
         <v>34</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G226" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M226" s="9" t="str" cm="1">
         <f t="array" ref="M226">PAGE_NAME(B226)</f>
@@ -13535,15 +13424,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="47.25">
+    <row r="227" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>38</v>
@@ -13571,15 +13460,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="47.25">
+    <row r="228" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>38</v>
@@ -13610,15 +13499,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="47.25">
+    <row r="229" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>41</v>
@@ -13627,7 +13516,7 @@
         <v>34</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G229" s="7" t="b">
         <v>0</v>
@@ -13649,15 +13538,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="47.25">
+    <row r="230" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>38</v>
@@ -13688,15 +13577,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="31.5">
+    <row r="231" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>38</v>
@@ -13724,15 +13613,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>38</v>
@@ -13760,15 +13649,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="31.5">
+    <row r="233" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
       <c r="B233" s="69" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>41</v>
@@ -13796,21 +13685,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
       <c r="B234" s="69" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G234" s="7" t="b">
         <v>0</v>
@@ -13832,15 +13721,15 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C235" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>38</v>
@@ -13868,15 +13757,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="31.5">
+    <row r="236" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>41</v>
@@ -13904,21 +13793,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G237" s="7" t="b">
         <v>0</v>
@@ -13940,15 +13829,15 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>41</v>
@@ -13976,15 +13865,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="31.5">
+    <row r="239" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>41</v>
@@ -14012,21 +13901,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G240" s="7" t="b">
         <v>0</v>
@@ -14048,15 +13937,15 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>33</v>
@@ -14087,15 +13976,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="31.5">
+    <row r="242" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>33</v>
@@ -14126,21 +14015,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G243" s="7" t="b">
         <v>0</v>
@@ -14165,15 +14054,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="31.5">
+    <row r="244" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>33</v>
@@ -14204,15 +14093,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="31.5">
+    <row r="245" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>33</v>
@@ -14243,21 +14132,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G246" s="7" t="b">
         <v>0</v>
@@ -14282,15 +14171,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>33</v>
@@ -14321,15 +14210,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="31.5">
+    <row r="248" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>33</v>
@@ -14360,21 +14249,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G249" s="7" t="b">
         <v>0</v>
@@ -14399,15 +14288,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="47.25">
+    <row r="250" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>38</v>
@@ -14435,15 +14324,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="31.5">
+    <row r="251" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>38</v>
@@ -14471,15 +14360,15 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>38</v>
@@ -14507,15 +14396,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="31.5">
+    <row r="253" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
       <c r="B253" s="69" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>41</v>
@@ -14528,12 +14417,6 @@
       </c>
       <c r="I253" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K253" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L253" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M253" s="9" t="str" cm="1">
         <f t="array" ref="M253">PAGE_NAME(B253)</f>
@@ -14552,24 +14435,24 @@
         <v>Client</v>
       </c>
       <c r="S253" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G254" s="7" t="b">
         <v>0</v>
@@ -14591,15 +14474,15 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>38</v>
@@ -14627,15 +14510,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="31.5">
+    <row r="256" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>41</v>
@@ -14648,12 +14531,6 @@
       </c>
       <c r="I256" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K256" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L256" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M256" s="9" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
@@ -14672,24 +14549,24 @@
         <v>Client</v>
       </c>
       <c r="S256" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G257" s="7" t="b">
         <v>0</v>
@@ -14711,15 +14588,15 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>41</v>
@@ -14747,15 +14624,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="31.5">
+    <row r="259" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>41</v>
@@ -14768,12 +14645,6 @@
       </c>
       <c r="I259" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K259" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L259" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M259" s="9" t="str" cm="1">
         <f t="array" ref="M259">PAGE_NAME(B259)</f>
@@ -14792,24 +14663,24 @@
         <v>Client</v>
       </c>
       <c r="S259" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="260" spans="1:23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G260" s="7" t="b">
         <v>0</v>
@@ -14831,15 +14702,15 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>33</v>
@@ -14870,15 +14741,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="31.5">
+    <row r="262" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>33</v>
@@ -14891,12 +14762,6 @@
       </c>
       <c r="I262" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K262" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L262" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M262" s="9" t="str" cm="1">
         <f t="array" ref="M262">PAGE_NAME(B262)</f>
@@ -14915,27 +14780,27 @@
         <v>Client</v>
       </c>
       <c r="S262" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W262" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G263" s="7" t="b">
         <v>0</v>
@@ -14960,15 +14825,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>33</v>
@@ -14999,15 +14864,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="31.5">
+    <row r="265" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>264</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>33</v>
@@ -15020,12 +14885,6 @@
       </c>
       <c r="I265" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K265" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L265" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M265" s="9" t="str" cm="1">
         <f t="array" ref="M265">PAGE_NAME(B265)</f>
@@ -15044,27 +14903,27 @@
         <v>Client</v>
       </c>
       <c r="S265" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W265" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G266" s="7" t="b">
         <v>0</v>
@@ -15089,15 +14948,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="31.5">
+    <row r="267" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>33</v>
@@ -15128,15 +14987,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="31.5">
+    <row r="268" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>267</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>33</v>
@@ -15149,12 +15008,6 @@
       </c>
       <c r="I268" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K268" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L268" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M268" s="9" t="str" cm="1">
         <f t="array" ref="M268">PAGE_NAME(B268)</f>
@@ -15173,27 +15026,27 @@
         <v>Client</v>
       </c>
       <c r="S268" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W268" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G269" s="7" t="b">
         <v>0</v>
@@ -15218,15 +15071,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>33</v>
@@ -15257,15 +15110,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="31.5">
+    <row r="271" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>270</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>33</v>
@@ -15278,12 +15131,6 @@
       </c>
       <c r="I271" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="K271" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L271" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="M271" s="9" t="str" cm="1">
         <f t="array" ref="M271">PAGE_NAME(B271)</f>
@@ -15302,27 +15149,27 @@
         <v>Client</v>
       </c>
       <c r="S271" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W271" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G272" s="7" t="b">
         <v>0</v>
@@ -15347,15 +15194,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="47.25">
+    <row r="273" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>38</v>
@@ -15383,15 +15230,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>38</v>
@@ -15419,15 +15266,15 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>38</v>
@@ -15455,15 +15302,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="31.5">
+    <row r="276" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>41</v>
@@ -15491,21 +15338,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G277" s="7" t="b">
         <v>0</v>
@@ -15527,15 +15374,15 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>41</v>
@@ -15563,15 +15410,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="31.5">
+    <row r="279" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>41</v>
@@ -15599,21 +15446,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G280" s="7" t="b">
         <v>0</v>
@@ -15635,15 +15482,15 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>41</v>
@@ -15671,15 +15518,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="31.5">
+    <row r="282" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>41</v>
@@ -15707,21 +15554,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G283" s="7" t="b">
         <v>0</v>
@@ -15743,15 +15590,15 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>33</v>
@@ -15782,15 +15629,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="31.5">
+    <row r="285" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>33</v>
@@ -15821,21 +15668,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G286" s="7" t="b">
         <v>0</v>
@@ -15860,15 +15707,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>33</v>
@@ -15899,15 +15746,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="31.5">
+    <row r="288" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>33</v>
@@ -15938,21 +15785,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:31">
+    <row r="289" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G289" s="7" t="b">
         <v>0</v>
@@ -15977,15 +15824,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:31" ht="31.5">
+    <row r="290" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>33</v>
@@ -16016,15 +15863,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:31" ht="31.5">
+    <row r="291" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>33</v>
@@ -16055,21 +15902,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="1:31">
+    <row r="292" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G292" s="7" t="b">
         <v>0</v>
@@ -16094,15 +15941,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:31">
+    <row r="293" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>33</v>
@@ -16133,15 +15980,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:31" ht="31.5">
+    <row r="294" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>33</v>
@@ -16172,21 +16019,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="1:31">
+    <row r="295" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
       <c r="B295" s="69" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G295" s="7" t="b">
         <v>0</v>
@@ -16211,7 +16058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
+    <row r="296" spans="1:31" s="5" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -16258,13 +16105,13 @@
       <c r="T296" s="10"/>
       <c r="U296" s="10"/>
       <c r="V296" s="15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="W296" s="65"/>
       <c r="X296" s="65"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="1:31" s="57" customFormat="1" ht="31.5">
+    <row r="297" spans="1:31" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -16311,7 +16158,7 @@
       <c r="T297" s="56"/>
       <c r="U297" s="56"/>
       <c r="V297" s="53" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="W297" s="66"/>
       <c r="X297" s="68"/>
@@ -16322,15 +16169,15 @@
       <c r="AD297" s="58"/>
       <c r="AE297" s="58"/>
     </row>
-    <row r="298" spans="1:31" s="50" customFormat="1" ht="45" customHeight="1">
+    <row r="298" spans="1:31" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>297</v>
       </c>
       <c r="B298" s="62" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D298" s="44" t="s">
         <v>38</v>
@@ -16366,15 +16213,15 @@
       <c r="W298" s="67"/>
       <c r="X298" s="67"/>
     </row>
-    <row r="299" spans="1:31" ht="57" customHeight="1">
+    <row r="299" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>298</v>
       </c>
       <c r="B299" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C299" s="45" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D299" s="44" t="s">
         <v>38</v>
@@ -16386,15 +16233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="54" customHeight="1">
+    <row r="300" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>299</v>
       </c>
       <c r="B300" s="61" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C300" s="45" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D300" s="44" t="s">
         <v>38</v>
@@ -16406,15 +16253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:31" ht="48" customHeight="1">
+    <row r="301" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>300</v>
       </c>
       <c r="B301" s="61" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D301" s="44" t="s">
         <v>38</v>
@@ -16426,18 +16273,18 @@
         <v>1</v>
       </c>
       <c r="H301" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="302" spans="1:31" ht="62.1" customHeight="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>301</v>
       </c>
       <c r="B302" s="61" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D302" s="44" t="s">
         <v>38</v>
@@ -16449,18 +16296,18 @@
         <v>1</v>
       </c>
       <c r="H302" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="303" spans="1:31" ht="62.1" customHeight="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
       <c r="B303" s="61" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>41</v>
@@ -16472,18 +16319,18 @@
         <v>1</v>
       </c>
       <c r="H303" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="304" spans="1:31" ht="62.1" customHeight="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
       <c r="B304" s="61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D304" s="44" t="s">
         <v>38</v>
@@ -16495,18 +16342,18 @@
         <v>1</v>
       </c>
       <c r="H304" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="305" spans="1:22" ht="62.1" customHeight="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
       <c r="B305" s="61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D305" s="44" t="s">
         <v>38</v>
@@ -16518,18 +16365,18 @@
         <v>1</v>
       </c>
       <c r="H305" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="306" spans="1:22" ht="62.1" customHeight="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>305</v>
       </c>
       <c r="B306" s="61" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D306" s="44" t="s">
         <v>38</v>
@@ -16541,15 +16388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:22" ht="62.1" customHeight="1">
+    <row r="307" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>306</v>
       </c>
       <c r="B307" s="61" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D307" s="44" t="s">
         <v>38</v>
@@ -16561,18 +16408,18 @@
         <v>1</v>
       </c>
       <c r="H307" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="308" spans="1:22" ht="62.1" customHeight="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>307</v>
       </c>
       <c r="B308" s="61" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>41</v>
@@ -16584,18 +16431,18 @@
         <v>1</v>
       </c>
       <c r="H308" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="309" spans="1:22" ht="62.1" customHeight="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>308</v>
       </c>
       <c r="B309" s="61" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D309" s="44" t="s">
         <v>38</v>
@@ -16607,18 +16454,18 @@
         <v>1</v>
       </c>
       <c r="H309" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="310" spans="1:22" ht="62.1" customHeight="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>309</v>
       </c>
       <c r="B310" s="61" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D310" s="44" t="s">
         <v>38</v>
@@ -16630,18 +16477,18 @@
         <v>1</v>
       </c>
       <c r="H310" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="311" spans="1:22" ht="62.1" customHeight="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>310</v>
       </c>
       <c r="B311" s="61" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D311" s="44" t="s">
         <v>38</v>
@@ -16653,15 +16500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:22" ht="62.1" customHeight="1">
+    <row r="312" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="44">
         <v>311</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>38</v>
@@ -16673,15 +16520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="62.1" customHeight="1">
+    <row r="313" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
         <v>312</v>
       </c>
       <c r="B313" s="69" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D313" s="7" t="s">
         <v>41</v>
@@ -16693,18 +16540,18 @@
         <v>1</v>
       </c>
       <c r="H313" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="314" spans="1:22" ht="62.1" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="44">
         <v>313</v>
       </c>
       <c r="B314" s="69" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D314" s="7" t="s">
         <v>41</v>
@@ -16716,18 +16563,18 @@
         <v>1</v>
       </c>
       <c r="H314" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="315" spans="1:22" ht="62.1" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="44">
         <v>314</v>
       </c>
       <c r="B315" s="69" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D315" s="7" t="s">
         <v>38</v>
@@ -16739,21 +16586,21 @@
         <v>1</v>
       </c>
       <c r="H315" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="316" spans="1:22" ht="62.1" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="44">
         <v>315</v>
       </c>
       <c r="B316" s="69" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E316" s="7" t="s">
         <v>34</v>
@@ -16762,15 +16609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="189" customHeight="1">
+    <row r="317" spans="1:22" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="44">
         <v>316</v>
       </c>
       <c r="B317" s="71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>41</v>
@@ -16782,18 +16629,18 @@
         <v>0</v>
       </c>
       <c r="V317" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="318" spans="1:22" ht="108.75" customHeight="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="44">
         <v>317</v>
       </c>
       <c r="B318" s="71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D318" s="7" t="s">
         <v>41</v>
@@ -16805,11 +16652,11 @@
         <v>0</v>
       </c>
       <c r="V318" s="15" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE311" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:AE318" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B222" r:id="rId1" location="bulkdataigcapabilitystatement" xr:uid="{F45C8B71-B7A4-4839-89D3-4D7BB88E263D}"/>
@@ -16854,7 +16701,7 @@
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16869,99 +16716,99 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="408.95" customHeight="1">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="79"/>
+    </row>
+    <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="78"/>
-    </row>
-    <row r="2" spans="1:2" ht="81.95" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="18" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+    <row r="11" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B11" s="41" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+      <c r="B13" s="73" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="141.75">
-      <c r="A11" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -16984,58 +16831,58 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E2" s="39">
         <v>45568</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E3" s="39">
         <v>45594</v>
@@ -17057,23 +16904,23 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -17081,13 +16928,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -17095,31 +16942,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -17130,16 +16977,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17397,22 +17240,53 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_1.0.0_reqs.xlsx
+++ b/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_1.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/bulk-data-test-kit/lib/bulk_data_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAA41E-28EC-D247-907C-A7A458EFCC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A901DA76-FC80-3449-BE1F-E0450F2448B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37960" yWindow="640" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="3" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="530">
   <si>
     <r>
       <rPr>
@@ -2194,216 +2194,6 @@
   </si>
   <si>
     <t>Very similar to SMART Backend Services in SMART STU 2. Current Inferno clients tests are equivalent for both versions, so details not extracted.  See SMART STU 2 for details.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metadata
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The metadata provides identifying information and context for the collection of requirements. 
-Filling out these fields is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>optional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-These fields map directly to the R5 Requirements fields.
-Suggested values:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1_reqs".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;inferno base url&gt;/&lt;Name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;Implementation Guide title / Source document title&gt; Requirements
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: draft
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Publisher:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inferno
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
-http://www.apache.org/licenses/LICENSE-2.0
-Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright Label: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copyright (c) &lt;year&gt; The MITRE Corporation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reference:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Implementation Guide URL&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
-    </r>
   </si>
   <si>
     <t>Id</t>
@@ -3096,6 +2886,286 @@
   <si>
     <t>hl7.fhir.uv.smart-app-launch_2.0.0@30,228,231,240,241,243-262,265,266,285-289,296,297,305,306,310,311,316,326,335-342,344,372-374,376,377,380-386,389-394,438,439</t>
   </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Patient-level</t>
+  </si>
+  <si>
+    <t>Group-level</t>
+  </si>
+  <si>
+    <t>System-level</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Groupings (Column P)</t>
+  </si>
+  <si>
+    <t>- General = general requirements applicable to all systems
+- Security = security requirements. May not be included in when referenced if the referenced spec has its own security requirements
+- Export = requirements applicable to all systems regardless of which level of $export operations are supported
+- System-level = requirements applicable to systems implementing system-level $export
+- Group-level = requirements applicable to systems implementing group-level $export
+-Patient-level = requirements applicable to systems implementing patient-level $export</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metadata
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The metadata provides identifying information and context for the collection of requirements. 
+Filling out these fields is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+These fields map directly to the R5 Requirements fields.
+Suggested values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Id: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1_reqs".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;inferno base url&gt;/&lt;Name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;Implementation Guide title / Source document title&gt; Requirements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: draft
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Publisher:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inferno
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
+http://www.apache.org/licenses/LICENSE-2.0
+Unless required by applicable law or agreed to in writing, software distributed under the License is distributed on an "AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied. See the License for the specific language governing permissions and limitations under the License.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright Label: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copyright (c) &lt;year&gt; The MITRE Corporation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reference:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Implementation Guide URL&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additional metadata:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Groupings (Column P):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> definitions of the Groupings in Column P of the Requirements sheet.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3247,7 +3317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3318,6 +3388,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3528,7 +3604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3672,6 +3748,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3689,6 +3766,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4109,14 +4189,14 @@
       <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>517</v>
+      <c r="A4" s="66" t="s">
+        <v>516</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="38"/>
       <c r="C5" s="33"/>
     </row>
@@ -4128,17 +4208,17 @@
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="70"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4163,11 +4243,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:AE318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F319" sqref="F319"/>
+      <selection pane="bottomRight" activeCell="R319" sqref="R319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4210,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -4326,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
@@ -4363,7 +4443,9 @@
         <v>Server</v>
       </c>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="S3" s="15"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -4379,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>37</v>
@@ -4408,6 +4490,9 @@
       <c r="P4" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>39</v>
@@ -4425,7 +4510,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>40</v>
@@ -4437,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>0</v>
@@ -4458,8 +4543,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R5" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="V5" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>42</v>
@@ -4474,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
@@ -4520,7 +4608,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
@@ -4563,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
@@ -4592,6 +4680,9 @@
       <c r="P8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="W8" s="15" t="s">
         <v>47</v>
@@ -4606,7 +4697,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>48</v>
@@ -4636,13 +4727,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R9" s="10" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>50</v>
@@ -4681,7 +4775,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>52</v>
@@ -4720,7 +4814,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>53</v>
@@ -4750,13 +4844,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R12" s="10" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
@@ -4795,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>56</v>
@@ -4834,7 +4931,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
@@ -4873,7 +4970,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>58</v>
@@ -4912,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>60</v>
@@ -4951,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>61</v>
@@ -4999,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>65</v>
@@ -5038,7 +5135,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>66</v>
@@ -5077,7 +5174,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>67</v>
@@ -5116,7 +5213,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>68</v>
@@ -5155,7 +5252,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>69</v>
@@ -5194,7 +5291,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>70</v>
@@ -5234,7 +5331,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>71</v>
@@ -5273,7 +5370,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>72</v>
@@ -5312,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>73</v>
@@ -5354,7 +5451,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>77</v>
@@ -5384,16 +5481,19 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R28" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>35</v>
@@ -5420,13 +5520,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R29" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>78</v>
@@ -5465,7 +5568,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>79</v>
@@ -5504,7 +5607,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>80</v>
@@ -5556,7 +5659,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>85</v>
@@ -5595,7 +5698,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>86</v>
@@ -5628,13 +5731,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R34" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="35" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>88</v>
@@ -5667,13 +5773,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R35" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="36" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>90</v>
@@ -5715,7 +5824,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>91</v>
@@ -5757,7 +5866,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>92</v>
@@ -5790,13 +5899,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R38" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="39" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>93</v>
@@ -5829,13 +5941,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R39" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>94</v>
@@ -5866,7 +5981,7 @@
         <v/>
       </c>
       <c r="W40" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="51" x14ac:dyDescent="0.2">
@@ -5874,7 +5989,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>95</v>
@@ -5913,7 +6028,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>96</v>
@@ -5952,7 +6067,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>97</v>
@@ -5985,13 +6100,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R43" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="44" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>99</v>
@@ -6039,7 +6157,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>101</v>
@@ -6078,7 +6196,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>102</v>
@@ -6126,7 +6244,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>104</v>
@@ -6165,7 +6283,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>105</v>
@@ -6195,6 +6313,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R48" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="W48" s="15" t="s">
         <v>106</v>
       </c>
@@ -6204,7 +6325,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>107</v>
@@ -6237,6 +6358,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R49" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S49" s="15" t="s">
         <v>83</v>
       </c>
@@ -6246,7 +6370,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>108</v>
@@ -6276,13 +6400,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R50" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>109</v>
@@ -6312,13 +6439,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R51" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>110</v>
@@ -6348,13 +6478,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R52" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="53" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>111</v>
@@ -6384,13 +6517,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R53" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>112</v>
@@ -6420,6 +6556,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R54" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="W54" s="15" t="s">
         <v>106</v>
       </c>
@@ -6429,7 +6568,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>113</v>
@@ -6462,6 +6601,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R55" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S55" s="15" t="s">
         <v>83</v>
       </c>
@@ -6471,7 +6613,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>114</v>
@@ -6513,7 +6655,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>116</v>
@@ -6555,7 +6697,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>118</v>
@@ -6597,7 +6739,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>120</v>
@@ -6639,7 +6781,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>122</v>
@@ -6669,13 +6811,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R60" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="61" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>123</v>
@@ -6705,13 +6850,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R61" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>124</v>
@@ -6744,6 +6892,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R62" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S62" s="15" t="s">
         <v>83</v>
       </c>
@@ -6753,7 +6904,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>125</v>
@@ -6786,6 +6937,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R63" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="W63" s="15" t="s">
         <v>127</v>
       </c>
@@ -6795,7 +6949,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>128</v>
@@ -6828,13 +6982,16 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R64" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="65" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>130</v>
@@ -6876,7 +7033,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>131</v>
@@ -6909,13 +7066,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R66" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="67" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>133</v>
@@ -6948,13 +7108,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R67" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="68" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>135</v>
@@ -6987,13 +7150,16 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R68" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="69" spans="1:23" ht="238" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>136</v>
@@ -7035,7 +7201,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>138</v>
@@ -7068,13 +7234,16 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R70" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="71" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>140</v>
@@ -7116,7 +7285,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>142</v>
@@ -7158,7 +7327,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>144</v>
@@ -7200,7 +7369,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>146</v>
@@ -7236,7 +7405,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>148</v>
@@ -7278,7 +7447,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>149</v>
@@ -7320,7 +7489,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>151</v>
@@ -7362,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>152</v>
@@ -7404,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>153</v>
@@ -7446,7 +7615,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>155</v>
@@ -7488,7 +7657,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>156</v>
@@ -7530,7 +7699,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>157</v>
@@ -7572,7 +7741,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>159</v>
@@ -7614,7 +7783,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>161</v>
@@ -7653,7 +7822,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>162</v>
@@ -7698,7 +7867,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>163</v>
@@ -7740,7 +7909,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>165</v>
@@ -7782,7 +7951,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>167</v>
@@ -7824,7 +7993,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>169</v>
@@ -7866,7 +8035,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>171</v>
@@ -7908,7 +8077,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>173</v>
@@ -7947,7 +8116,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>174</v>
@@ -7992,7 +8161,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>175</v>
@@ -8034,7 +8203,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>177</v>
@@ -8076,7 +8245,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>179</v>
@@ -8118,7 +8287,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>180</v>
@@ -8163,7 +8332,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>181</v>
@@ -8205,7 +8374,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>183</v>
@@ -8247,7 +8416,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>184</v>
@@ -8289,7 +8458,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>185</v>
@@ -8331,7 +8500,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>186</v>
@@ -8373,7 +8542,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>187</v>
@@ -8412,7 +8581,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>188</v>
@@ -8457,7 +8626,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>189</v>
@@ -8499,7 +8668,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>191</v>
@@ -8523,7 +8692,7 @@
         <v>81</v>
       </c>
       <c r="L105" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -8541,6 +8710,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R105" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S105" s="15" t="s">
         <v>83</v>
       </c>
@@ -8553,7 +8725,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>192</v>
@@ -8595,7 +8767,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>194</v>
@@ -8637,7 +8809,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>195</v>
@@ -8667,6 +8839,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R108" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W108" s="15" t="s">
         <v>196</v>
       </c>
@@ -8676,7 +8851,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>197</v>
@@ -8718,7 +8893,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>199</v>
@@ -8761,7 +8936,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>201</v>
@@ -8803,7 +8978,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>203</v>
@@ -8845,7 +9020,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>204</v>
@@ -8887,7 +9062,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>205</v>
@@ -8920,6 +9095,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R114" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S114" s="15" t="s">
         <v>83</v>
       </c>
@@ -8929,7 +9107,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>206</v>
@@ -8953,7 +9131,7 @@
         <v>81</v>
       </c>
       <c r="L115" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -8971,6 +9149,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R115" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S115" s="15" t="s">
         <v>83</v>
       </c>
@@ -8983,7 +9164,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>207</v>
@@ -9013,13 +9194,16 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R116" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="117" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>208</v>
@@ -9064,7 +9248,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>209</v>
@@ -9103,7 +9287,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>210</v>
@@ -9136,16 +9320,19 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R119" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="120" spans="1:23" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>38</v>
@@ -9178,6 +9365,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R120" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S120" s="15" t="s">
         <v>63</v>
       </c>
@@ -9193,7 +9383,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>215</v>
@@ -9235,7 +9425,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>217</v>
@@ -9277,7 +9467,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>218</v>
@@ -9319,10 +9509,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>38</v>
@@ -9355,6 +9545,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R124" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S124" s="15" t="s">
         <v>63</v>
       </c>
@@ -9367,7 +9560,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>222</v>
@@ -9403,6 +9596,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R125" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S125" s="15" t="s">
         <v>83</v>
       </c>
@@ -9415,7 +9611,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>225</v>
@@ -9448,13 +9644,16 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R126" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="127" spans="1:23" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>227</v>
@@ -9490,6 +9689,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R127" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S127" s="15" t="s">
         <v>83</v>
       </c>
@@ -9502,7 +9704,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>230</v>
@@ -9535,13 +9737,16 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R128" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="129" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>231</v>
@@ -9574,13 +9779,16 @@
         <f t="shared" ref="P129:P194" si="4">IF(ISNUMBER(SEARCH("server", C129)), "Server", IF(ISNUMBER(SEARCH("Server", C129)), "Server", IF(ISNUMBER(SEARCH("client", C129)), "Client", IF(ISNUMBER(SEARCH("Client", C129)), "Client", ""))))</f>
         <v>Server</v>
       </c>
+      <c r="R129" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="130" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>233</v>
@@ -9613,13 +9821,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R130" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="131" spans="1:23" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>235</v>
@@ -9655,6 +9866,9 @@
         <f t="shared" si="4"/>
         <v>Client</v>
       </c>
+      <c r="R131" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S131" s="15" t="s">
         <v>83</v>
       </c>
@@ -9667,7 +9881,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>238</v>
@@ -9700,13 +9914,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R132" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="133" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>240</v>
@@ -9736,13 +9953,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R133" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="134" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>241</v>
@@ -9772,13 +9992,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R134" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="135" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>242</v>
@@ -9808,13 +10031,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R135" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="136" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>243</v>
@@ -9844,13 +10070,16 @@
         <f t="shared" si="4"/>
         <v>Client</v>
       </c>
+      <c r="R136" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="137" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>244</v>
@@ -9884,6 +10113,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R137" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="S137" s="10"/>
     </row>
     <row r="138" spans="1:23" ht="68" x14ac:dyDescent="0.2">
@@ -9891,7 +10123,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>245</v>
@@ -9924,6 +10156,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R138" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W138" s="15" t="s">
         <v>247</v>
       </c>
@@ -9933,7 +10168,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>248</v>
@@ -9963,6 +10198,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R139" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W139" s="15" t="s">
         <v>249</v>
       </c>
@@ -9972,7 +10210,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>250</v>
@@ -10014,7 +10252,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>252</v>
@@ -10056,7 +10294,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>254</v>
@@ -10089,13 +10327,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R142" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="143" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>256</v>
@@ -10128,13 +10369,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R143" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="144" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>258</v>
@@ -10167,13 +10411,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R144" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="145" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>260</v>
@@ -10203,13 +10450,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R145" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="146" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>261</v>
@@ -10239,13 +10489,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R146" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="147" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>262</v>
@@ -10275,6 +10528,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R147" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W147" s="15" t="s">
         <v>263</v>
       </c>
@@ -10284,7 +10540,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>264</v>
@@ -10314,13 +10570,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R148" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="149" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>265</v>
@@ -10350,13 +10609,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R149" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="150" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>267</v>
@@ -10386,13 +10648,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R150" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="151" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>268</v>
@@ -10422,13 +10687,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R151" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="152" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>269</v>
@@ -10458,13 +10726,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R152" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="153" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>270</v>
@@ -10494,13 +10765,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R153" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="154" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>271</v>
@@ -10530,13 +10804,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R154" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="155" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>272</v>
@@ -10566,13 +10843,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R155" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="156" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>273</v>
@@ -10602,13 +10882,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R156" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="157" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>274</v>
@@ -10638,13 +10921,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R157" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="158" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>275</v>
@@ -10674,13 +10960,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R158" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="159" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>276</v>
@@ -10722,7 +11011,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>278</v>
@@ -10752,13 +11041,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R160" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="161" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>279</v>
@@ -10788,13 +11080,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R161" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="162" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>280</v>
@@ -10824,13 +11119,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R162" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="163" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>281</v>
@@ -10863,13 +11161,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R163" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="164" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>283</v>
@@ -10899,13 +11200,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R164" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="165" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>284</v>
@@ -10935,13 +11239,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R165" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="166" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>285</v>
@@ -10971,6 +11278,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R166" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W166" s="15" t="s">
         <v>286</v>
       </c>
@@ -10980,7 +11290,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>287</v>
@@ -11010,13 +11320,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R167" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="168" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>288</v>
@@ -11049,13 +11362,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R168" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="169" spans="1:23" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>290</v>
@@ -11067,7 +11383,7 @@
         <v>32</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>0</v>
@@ -11088,13 +11404,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R169" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="170" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>291</v>
@@ -11124,13 +11443,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R170" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="171" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>292</v>
@@ -11160,13 +11482,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R171" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="172" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>293</v>
@@ -11196,13 +11521,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R172" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="173" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>294</v>
@@ -11232,13 +11560,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R173" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="174" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>295</v>
@@ -11271,13 +11602,16 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R174" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="175" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>297</v>
@@ -11307,13 +11641,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R175" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="176" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>298</v>
@@ -11343,13 +11680,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R176" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="177" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>299</v>
@@ -11379,13 +11719,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R177" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="178" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>300</v>
@@ -11397,7 +11740,7 @@
         <v>32</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>0</v>
@@ -11418,13 +11761,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R178" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="179" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>301</v>
@@ -11454,13 +11800,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R179" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="180" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>302</v>
@@ -11499,7 +11848,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>303</v>
@@ -11538,7 +11887,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>304</v>
@@ -11550,7 +11899,7 @@
         <v>32</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>0</v>
@@ -11580,7 +11929,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>305</v>
@@ -11622,7 +11971,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>307</v>
@@ -11664,7 +12013,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>309</v>
@@ -11706,7 +12055,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>311</v>
@@ -11748,7 +12097,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>313</v>
@@ -11787,7 +12136,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>314</v>
@@ -11826,7 +12175,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>315</v>
@@ -11865,7 +12214,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>316</v>
@@ -11904,7 +12253,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>317</v>
@@ -11934,6 +12283,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R191" s="65" t="s">
+        <v>522</v>
+      </c>
       <c r="W191" s="15" t="s">
         <v>33</v>
       </c>
@@ -11943,7 +12295,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>318</v>
@@ -11973,13 +12325,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R192" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="193" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>319</v>
@@ -12009,13 +12364,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R193" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="194" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>320</v>
@@ -12027,7 +12385,7 @@
         <v>32</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -12048,13 +12406,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R194" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="195" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>321</v>
@@ -12084,13 +12445,16 @@
         <f t="shared" ref="P195:P258" si="8">IF(ISNUMBER(SEARCH("server", C195)), "Server", IF(ISNUMBER(SEARCH("Server", C195)), "Server", IF(ISNUMBER(SEARCH("client", C195)), "Client", IF(ISNUMBER(SEARCH("Client", C195)), "Client", ""))))</f>
         <v/>
       </c>
+      <c r="R195" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="196" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>322</v>
@@ -12123,13 +12487,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R196" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="197" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>324</v>
@@ -12159,13 +12526,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R197" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="198" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>325</v>
@@ -12198,13 +12568,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R198" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="199" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>327</v>
@@ -12234,13 +12607,16 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R199" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="200" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>328</v>
@@ -12270,6 +12646,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R200" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="201" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
@@ -12312,6 +12691,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R201" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S201" s="15" t="s">
         <v>63</v>
       </c>
@@ -12360,6 +12742,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R202" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="S202" s="15" t="s">
         <v>83</v>
       </c>
@@ -12402,6 +12787,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R203" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="204" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
@@ -12438,13 +12826,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R204" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="205" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>338</v>
@@ -12474,13 +12865,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R205" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="206" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>339</v>
@@ -12510,13 +12904,16 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R206" s="10" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="207" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>340</v>
@@ -12546,13 +12943,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R207" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="208" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>341</v>
@@ -12582,13 +12982,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R208" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="209" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>342</v>
@@ -12618,13 +13021,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R209" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="210" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>343</v>
@@ -12654,13 +13060,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R210" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="211" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C211" s="58" t="s">
         <v>266</v>
@@ -12690,13 +13099,16 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R211" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="212" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>344</v>
@@ -12738,7 +13150,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>346</v>
@@ -12780,7 +13192,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>347</v>
@@ -12822,7 +13234,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>349</v>
@@ -12864,7 +13276,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>351</v>
@@ -12906,7 +13318,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>353</v>
@@ -12948,7 +13360,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>355</v>
@@ -12987,7 +13399,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>356</v>
@@ -12999,7 +13411,7 @@
         <v>32</v>
       </c>
       <c r="F219" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G219" s="7" t="b">
         <v>0</v>
@@ -13020,6 +13432,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R219" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="W219" s="15" t="s">
         <v>357</v>
       </c>
@@ -13068,7 +13483,7 @@
         <v>358</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>31</v>
@@ -13134,6 +13549,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R222" s="10" t="s">
+        <v>526</v>
+      </c>
       <c r="S222" s="15" t="s">
         <v>83</v>
       </c>
@@ -13182,7 +13600,7 @@
         <v>363</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>31</v>
@@ -13213,7 +13631,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -13221,7 +13639,7 @@
         <v>363</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>31</v>
@@ -13252,7 +13670,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -13260,7 +13678,7 @@
         <v>363</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>31</v>
@@ -13291,7 +13709,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
@@ -13327,7 +13745,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -13335,7 +13753,7 @@
         <v>368</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>31</v>
@@ -13363,7 +13781,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
@@ -13371,7 +13789,7 @@
         <v>368</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>31</v>
@@ -13399,7 +13817,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -13407,7 +13825,7 @@
         <v>370</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>35</v>
@@ -13434,8 +13852,11 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R230" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
@@ -13470,8 +13891,11 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R231" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -13506,8 +13930,11 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R232" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
@@ -13542,13 +13969,16 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R233" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>374</v>
@@ -13579,7 +14009,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
@@ -13614,8 +14044,11 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R235" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -13650,13 +14083,16 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R236" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>377</v>
@@ -13687,7 +14123,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -13722,8 +14158,11 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R238" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
@@ -13758,13 +14197,16 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R239" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>380</v>
@@ -13800,7 +14242,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>381</v>
@@ -13839,7 +14281,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>382</v>
@@ -13878,7 +14320,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>383</v>
@@ -13917,7 +14359,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>384</v>
@@ -13956,7 +14398,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>385</v>
@@ -13995,7 +14437,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>386</v>
@@ -14034,7 +14476,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>387</v>
@@ -14073,7 +14515,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>388</v>
@@ -14112,7 +14554,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>389</v>
@@ -14181,6 +14623,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R250" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="251" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
@@ -14217,6 +14662,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R251" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="252" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
@@ -14253,6 +14701,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R252" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="253" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
@@ -14292,6 +14743,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R253" s="10" t="s">
+        <v>524</v>
+      </c>
       <c r="S253" s="15" t="s">
         <v>83</v>
       </c>
@@ -14301,7 +14755,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>374</v>
@@ -14367,6 +14821,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R255" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="256" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
@@ -14406,6 +14863,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R256" s="10" t="s">
+        <v>524</v>
+      </c>
       <c r="S256" s="15" t="s">
         <v>83</v>
       </c>
@@ -14415,7 +14875,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>377</v>
@@ -14481,6 +14941,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R258" s="10" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="259" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
@@ -14520,6 +14983,9 @@
         <f t="shared" ref="P259:P272" si="10">IF(ISNUMBER(SEARCH("server", C259)), "Server", IF(ISNUMBER(SEARCH("Server", C259)), "Server", IF(ISNUMBER(SEARCH("client", C259)), "Client", IF(ISNUMBER(SEARCH("Client", C259)), "Client", ""))))</f>
         <v>Client</v>
       </c>
+      <c r="R259" s="10" t="s">
+        <v>524</v>
+      </c>
       <c r="S259" s="15" t="s">
         <v>83</v>
       </c>
@@ -14529,7 +14995,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>380</v>
@@ -14565,7 +15031,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>381</v>
@@ -14604,7 +15070,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>382</v>
@@ -14649,7 +15115,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>383</v>
@@ -14688,7 +15154,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>393</v>
@@ -14727,7 +15193,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>394</v>
@@ -14772,7 +15238,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>395</v>
@@ -14811,7 +15277,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>384</v>
@@ -14850,7 +15316,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>385</v>
@@ -14895,7 +15361,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>386</v>
@@ -14934,7 +15400,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>387</v>
@@ -14973,7 +15439,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>388</v>
@@ -15018,7 +15484,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>389</v>
@@ -15087,6 +15553,9 @@
         <f>IF(ISNUMBER(SEARCH("server", C273)), "Server", IF(ISNUMBER(SEARCH("Server", C273)), "Server", IF(ISNUMBER(SEARCH("client", C273)), "Client", IF(ISNUMBER(SEARCH("Client", C273)), "Client", ""))))</f>
         <v>Server</v>
       </c>
+      <c r="R273" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="274" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
@@ -15123,6 +15592,9 @@
         <f t="shared" ref="P274:P298" si="12">IF(ISNUMBER(SEARCH("server", C274)), "Server", IF(ISNUMBER(SEARCH("Server", C274)), "Server", IF(ISNUMBER(SEARCH("client", C274)), "Client", IF(ISNUMBER(SEARCH("Client", C274)), "Client", ""))))</f>
         <v/>
       </c>
+      <c r="R274" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="275" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
@@ -15159,6 +15631,9 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
+      <c r="R275" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="276" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
@@ -15195,13 +15670,16 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
+      <c r="R276" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="277" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>374</v>
@@ -15267,6 +15745,9 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
+      <c r="R278" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="279" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
@@ -15303,13 +15784,16 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
+      <c r="R279" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="280" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>377</v>
@@ -15375,6 +15859,9 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
+      <c r="R281" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="282" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
@@ -15411,13 +15898,16 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
+      <c r="R282" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="283" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>380</v>
@@ -15453,7 +15943,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>381</v>
@@ -15492,7 +15982,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>382</v>
@@ -15531,7 +16021,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>383</v>
@@ -15570,7 +16060,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>393</v>
@@ -15609,7 +16099,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>394</v>
@@ -15648,7 +16138,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>395</v>
@@ -15687,7 +16177,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>384</v>
@@ -15726,7 +16216,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>385</v>
@@ -15765,7 +16255,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>386</v>
@@ -15804,7 +16294,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>387</v>
@@ -15843,7 +16333,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>388</v>
@@ -15882,7 +16372,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>389</v>
@@ -15921,7 +16411,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>34</v>
@@ -15958,7 +16448,9 @@
         <v>Server</v>
       </c>
       <c r="Q296" s="10"/>
-      <c r="R296" s="10"/>
+      <c r="R296" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="S296" s="15"/>
       <c r="T296" s="10"/>
       <c r="U296" s="10"/>
@@ -15974,7 +16466,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C297" s="50" t="s">
         <v>37</v>
@@ -16011,7 +16503,9 @@
         <v/>
       </c>
       <c r="Q297" s="54"/>
-      <c r="R297" s="54"/>
+      <c r="R297" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="S297" s="51"/>
       <c r="T297" s="54"/>
       <c r="U297" s="54"/>
@@ -16032,7 +16526,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>401</v>
@@ -16063,7 +16557,9 @@
         <v>Server</v>
       </c>
       <c r="Q298" s="47"/>
-      <c r="R298" s="47"/>
+      <c r="R298" s="10" t="s">
+        <v>523</v>
+      </c>
       <c r="S298" s="44"/>
       <c r="T298" s="47"/>
       <c r="U298" s="47"/>
@@ -16076,7 +16572,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C299" s="43" t="s">
         <v>402</v>
@@ -16089,6 +16585,9 @@
       </c>
       <c r="G299" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="R299" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -16096,7 +16595,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C300" s="43" t="s">
         <v>403</v>
@@ -16109,6 +16608,9 @@
       </c>
       <c r="G300" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="R300" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -16116,7 +16618,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>404</v>
@@ -16132,6 +16634,9 @@
       </c>
       <c r="H301" s="15" t="s">
         <v>405</v>
+      </c>
+      <c r="R301" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="302" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16139,7 +16644,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="64" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>406</v>
@@ -16155,6 +16660,9 @@
       </c>
       <c r="H302" s="15" t="s">
         <v>405</v>
+      </c>
+      <c r="R302" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="303" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16162,7 +16670,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>407</v>
@@ -16178,6 +16686,9 @@
       </c>
       <c r="H303" s="15" t="s">
         <v>405</v>
+      </c>
+      <c r="R303" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="304" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16185,7 +16696,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>408</v>
@@ -16201,6 +16712,9 @@
       </c>
       <c r="H304" s="15" t="s">
         <v>409</v>
+      </c>
+      <c r="R304" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16208,7 +16722,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>410</v>
@@ -16224,6 +16738,9 @@
       </c>
       <c r="H305" s="15" t="s">
         <v>409</v>
+      </c>
+      <c r="R305" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16231,7 +16748,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>411</v>
@@ -16244,6 +16761,9 @@
       </c>
       <c r="G306" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="R306" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16251,7 +16771,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>412</v>
@@ -16267,6 +16787,9 @@
       </c>
       <c r="H307" s="15" t="s">
         <v>413</v>
+      </c>
+      <c r="R307" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16274,7 +16797,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>414</v>
@@ -16290,6 +16813,9 @@
       </c>
       <c r="H308" s="15" t="s">
         <v>413</v>
+      </c>
+      <c r="R308" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16297,7 +16823,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>415</v>
@@ -16313,6 +16839,9 @@
       </c>
       <c r="H309" s="15" t="s">
         <v>416</v>
+      </c>
+      <c r="R309" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16320,7 +16849,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>417</v>
@@ -16336,6 +16865,9 @@
       </c>
       <c r="H310" s="15" t="s">
         <v>416</v>
+      </c>
+      <c r="R310" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16343,7 +16875,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>418</v>
@@ -16356,6 +16888,9 @@
       </c>
       <c r="G311" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="R311" s="65" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -16377,6 +16912,9 @@
       <c r="G312" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="R312" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="313" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
@@ -16400,6 +16938,9 @@
       <c r="H313" s="15" t="s">
         <v>423</v>
       </c>
+      <c r="R313" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="314" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="42">
@@ -16423,6 +16964,9 @@
       <c r="H314" s="15" t="s">
         <v>423</v>
       </c>
+      <c r="R314" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="315" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="42">
@@ -16446,6 +16990,9 @@
       <c r="H315" s="15" t="s">
         <v>426</v>
       </c>
+      <c r="R315" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="316" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="42">
@@ -16466,6 +17013,9 @@
       <c r="G316" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="R316" s="65" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="317" spans="1:22" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="42">
@@ -16486,6 +17036,9 @@
       <c r="G317" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="R317" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="V317" s="15" t="s">
         <v>432</v>
       </c>
@@ -16508,6 +17061,9 @@
       </c>
       <c r="G318" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="R318" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="V318" s="15" t="s">
         <v>434</v>
@@ -16570,105 +17126,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>443</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>449</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>451</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>454</v>
+    </row>
+    <row r="14" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -16699,19 +17263,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -16719,13 +17283,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
         <v>459</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>460</v>
-      </c>
-      <c r="D2" t="s">
-        <v>461</v>
       </c>
       <c r="E2" s="39">
         <v>45568</v>
@@ -16736,13 +17300,13 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>460</v>
-      </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3" s="39">
         <v>45594</v>
@@ -16768,13 +17332,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -16788,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
@@ -16802,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
@@ -16813,7 +17377,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -16837,15 +17401,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
@@ -16858,7 +17413,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -17112,15 +17667,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -17138,7 +17694,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17156,4 +17712,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>